--- a/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_o.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_o.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48.90208449363708</v>
+        <v>50.3920401096344</v>
       </c>
       <c r="C2">
-        <v>0.5429486627533793</v>
+        <v>0.2938406656547352</v>
       </c>
       <c r="D2">
-        <v>0.1168734550476074</v>
+        <v>0.1188417434692383</v>
       </c>
       <c r="E2">
-        <v>0.006074181979237124</v>
+        <v>0.005152902906370044</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -522,10 +522,10 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>0.01885954034591908</v>
+        <v>0.0188595403459193</v>
       </c>
       <c r="J2">
-        <v>0.01350278234720625</v>
+        <v>0.01350278234720592</v>
       </c>
       <c r="K2">
         <v>0.003591682567543608</v>
@@ -534,13 +534,13 @@
         <v>0.05040554386871343</v>
       </c>
       <c r="M2">
-        <v>-0.01916279696081724</v>
+        <v>-0.01916279696081746</v>
       </c>
       <c r="N2">
-        <v>0.01343935043371303</v>
+        <v>0.01343935043371296</v>
       </c>
       <c r="O2">
-        <v>0.02260866434136683</v>
+        <v>0.0226086643413669</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>95.98443117141724</v>
+        <v>99.7836944103241</v>
       </c>
       <c r="C3">
-        <v>0.4916453076005197</v>
+        <v>0.7388327324377834</v>
       </c>
       <c r="D3">
-        <v>0.1482576370239258</v>
+        <v>0.1541122913360596</v>
       </c>
       <c r="E3">
-        <v>0.005222870210979146</v>
+        <v>0.007863950696553391</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -581,16 +581,16 @@
         <v>0.006365987276212182</v>
       </c>
       <c r="L3">
-        <v>0.04612883857101113</v>
+        <v>0.04612883857101135</v>
       </c>
       <c r="M3">
-        <v>-0.01628585013529471</v>
+        <v>-0.01628585013529493</v>
       </c>
       <c r="N3">
         <v>0.01492696060695167</v>
       </c>
       <c r="O3">
-        <v>0.02077476049908512</v>
+        <v>0.02077476049908525</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>194.126832485199</v>
+        <v>197.9813157558441</v>
       </c>
       <c r="C4">
-        <v>2.218196489731621</v>
+        <v>0.9616311839373883</v>
       </c>
       <c r="D4">
-        <v>0.2187550544738769</v>
+        <v>0.2290465831756592</v>
       </c>
       <c r="E4">
-        <v>0.005778699966332929</v>
+        <v>0.01277050770801895</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -622,25 +622,25 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>0.02775823214392359</v>
+        <v>0.02775823214392337</v>
       </c>
       <c r="J4">
         <v>0.01071121456020796</v>
       </c>
       <c r="K4">
-        <v>0.01081193642979139</v>
+        <v>0.01081193642979117</v>
       </c>
       <c r="L4">
         <v>0.04301294085438356</v>
       </c>
       <c r="M4">
-        <v>-0.01446902859986499</v>
+        <v>-0.01446902859986476</v>
       </c>
       <c r="N4">
-        <v>0.0155650590776883</v>
+        <v>0.01556505907768826</v>
       </c>
       <c r="O4">
-        <v>0.0192367257483148</v>
+        <v>0.01923672574831472</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.7632107257843</v>
+        <v>51.9217577457428</v>
       </c>
       <c r="C5">
-        <v>0.4419409107943165</v>
+        <v>0.4627135473526072</v>
       </c>
       <c r="D5">
-        <v>0.1122622013092041</v>
+        <v>0.1184868335723877</v>
       </c>
       <c r="E5">
-        <v>0.005103139331432488</v>
+        <v>0.008171155908468361</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -681,19 +681,19 @@
         <v>0.004365138917969968</v>
       </c>
       <c r="L5">
-        <v>0.04940416849086127</v>
+        <v>0.04940416849086116</v>
       </c>
       <c r="M5">
         <v>-0.01637242276263695</v>
       </c>
       <c r="N5">
-        <v>0.01338075406074242</v>
+        <v>0.0133807540607424</v>
       </c>
       <c r="O5">
-        <v>0.02173046400074304</v>
+        <v>0.02173046400074301</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.35989265441894</v>
+        <v>102.1568877220154</v>
       </c>
       <c r="C6">
-        <v>0.823284805088666</v>
+        <v>1.264327526799897</v>
       </c>
       <c r="D6">
-        <v>0.1463699817657471</v>
+        <v>0.1507430553436279</v>
       </c>
       <c r="E6">
-        <v>0.002968656341385237</v>
+        <v>0.003755095228769517</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -743,7 +743,7 @@
         <v>0.02080910887135843</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>195.8491322517395</v>
+        <v>202.5037628173828</v>
       </c>
       <c r="C7">
-        <v>1.269523746961437</v>
+        <v>1.420891601205125</v>
       </c>
       <c r="D7">
-        <v>0.216900110244751</v>
+        <v>0.2250550270080566</v>
       </c>
       <c r="E7">
-        <v>0.007042646617128115</v>
+        <v>0.01022572693644357</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -772,28 +772,28 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>0.02816501931671933</v>
+        <v>0.02816501931671944</v>
       </c>
       <c r="J7">
         <v>0.008738392163761488</v>
       </c>
       <c r="K7">
-        <v>0.01272484344912583</v>
+        <v>0.01272484344912594</v>
       </c>
       <c r="L7">
         <v>0.04531429583925373</v>
       </c>
       <c r="M7">
-        <v>-0.01297640488068885</v>
+        <v>-0.01297640488068907</v>
       </c>
       <c r="N7">
         <v>0.01639322917763431</v>
       </c>
       <c r="O7">
-        <v>0.01954293799921799</v>
+        <v>0.01954293799921806</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49.73775610923767</v>
+        <v>51.18978204727173</v>
       </c>
       <c r="C8">
-        <v>0.3744452791755152</v>
+        <v>0.5851367326867022</v>
       </c>
       <c r="D8">
-        <v>0.1122676849365234</v>
+        <v>0.1156138896942139</v>
       </c>
       <c r="E8">
-        <v>0.00438481073556515</v>
+        <v>0.005114495047921957</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98.01160035133361</v>
+        <v>101.3386256694794</v>
       </c>
       <c r="C9">
-        <v>0.8210351682659335</v>
+        <v>0.7575830616303683</v>
       </c>
       <c r="D9">
-        <v>0.1443483829498291</v>
+        <v>0.1471902847290039</v>
       </c>
       <c r="E9">
-        <v>0.001584100765609385</v>
+        <v>0.005978576583251879</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="I9">
-        <v>0.02671672479800313</v>
+        <v>0.02671672479800302</v>
       </c>
       <c r="J9">
         <v>0.01023901674802097</v>
@@ -887,10 +887,10 @@
         <v>-0.0147995663332845</v>
       </c>
       <c r="N9">
-        <v>0.0157890129365575</v>
+        <v>0.01578901293655748</v>
       </c>
       <c r="O9">
-        <v>0.02080910887135844</v>
+        <v>0.02080910887135843</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>196.0766518592835</v>
+        <v>201.8842839241028</v>
       </c>
       <c r="C10">
-        <v>1.329946830071869</v>
+        <v>1.736577557314429</v>
       </c>
       <c r="D10">
-        <v>0.2154150485992432</v>
+        <v>0.2249830722808838</v>
       </c>
       <c r="E10">
-        <v>0.005576716174544145</v>
+        <v>0.004211285812208952</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -922,28 +922,28 @@
         <v>23</v>
       </c>
       <c r="I10">
-        <v>0.02816501931671933</v>
+        <v>0.02816501931671944</v>
       </c>
       <c r="J10">
         <v>0.008738392163761488</v>
       </c>
       <c r="K10">
-        <v>0.01272484344912594</v>
+        <v>0.01272484344912617</v>
       </c>
       <c r="L10">
         <v>0.04531429583925373</v>
       </c>
       <c r="M10">
-        <v>-0.01297640488068907</v>
+        <v>-0.01297640488068885</v>
       </c>
       <c r="N10">
-        <v>0.01639322917763428</v>
+        <v>0.0163932291776344</v>
       </c>
       <c r="O10">
-        <v>0.01954293799921805</v>
+        <v>0.01954293799921799</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
